--- a/data/RawData/ObsData/2001-2009/01-04-2004.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-04-2004.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\pdfData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02445F8F-3277-409B-A1CC-CF15C17D27C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7EDC6-3A4E-45E4-AD19-1C34EA6BF300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3021" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3020" uniqueCount="1317">
   <si>
     <r>
       <rPr>
@@ -8255,17 +8255,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF978C99"/>
-        <rFont val="Amasis MT Pro"/>
-        <family val="1"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color rgb="FF181515"/>
         <rFont val="Amasis MT Pro"/>
         <family val="1"/>
@@ -8892,9 +8881,6 @@
   </si>
   <si>
     <t>KS5</t>
-  </si>
-  <si>
-    <t>05-99</t>
   </si>
   <si>
     <t>LA41</t>
@@ -8935,7 +8921,7 @@
     <numFmt numFmtId="164" formatCode="00000"/>
     <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -9246,12 +9232,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF181515"/>
-      <name val="Amasis MT Pro"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF978C99"/>
       <name val="Amasis MT Pro"/>
       <family val="1"/>
     </font>
@@ -11062,8 +11042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N485" sqref="N485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11134,7 +11114,7 @@
         <v>43</v>
       </c>
       <c r="J3" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K3" s="96" t="s">
         <v>44</v>
@@ -11387,7 +11367,7 @@
     <row r="10" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="101"/>
       <c r="B10" s="101" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C10" s="101" t="s">
         <v>58</v>
@@ -11422,13 +11402,13 @@
     <row r="11" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="101"/>
       <c r="B11" s="101" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C11" s="101" t="s">
         <v>83</v>
       </c>
       <c r="D11" s="96" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>59</v>
@@ -11449,13 +11429,13 @@
     <row r="12" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="101"/>
       <c r="B12" s="101" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C12" s="101" t="s">
         <v>409</v>
       </c>
       <c r="D12" s="96" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>59</v>
@@ -11529,13 +11509,13 @@
     <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="96" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C14" s="96" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="96" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="E14" s="96" t="s">
         <v>59</v>
@@ -11586,11 +11566,11 @@
       <c r="H15" s="5"/>
       <c r="I15" s="101"/>
       <c r="J15" s="101" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K15" s="101"/>
       <c r="L15" s="101" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="M15" s="101" t="s">
         <v>51</v>
@@ -11621,11 +11601,11 @@
       <c r="H16" s="5"/>
       <c r="I16" s="101"/>
       <c r="J16" s="101" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="101" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="M16" s="101" t="s">
         <v>51</v>
@@ -11656,11 +11636,11 @@
       <c r="H17" s="9"/>
       <c r="I17" s="101"/>
       <c r="J17" s="101" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="K17" s="101"/>
       <c r="L17" s="101" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="M17" s="101" t="s">
         <v>59</v>
@@ -11718,11 +11698,11 @@
       <c r="H19" s="2"/>
       <c r="I19" s="101"/>
       <c r="J19" s="101" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="K19" s="101"/>
       <c r="L19" s="101" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="M19" s="101" t="s">
         <v>59</v>
@@ -11737,7 +11717,7 @@
         <v>135</v>
       </c>
       <c r="B20" s="101" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C20" s="101" t="s">
         <v>710</v>
@@ -11749,7 +11729,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="102" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="G20" s="106">
         <v>4867</v>
@@ -11757,11 +11737,11 @@
       <c r="H20" s="2"/>
       <c r="I20" s="100"/>
       <c r="J20" s="96" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="K20" s="96"/>
       <c r="L20" s="96" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="M20" s="96" t="s">
         <v>59</v>
@@ -12103,11 +12083,11 @@
       <c r="H30" s="5"/>
       <c r="I30" s="101"/>
       <c r="J30" s="101" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="K30" s="101"/>
       <c r="L30" s="101" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="M30" s="101" t="s">
         <v>59</v>
@@ -12138,11 +12118,11 @@
       <c r="H31" s="9"/>
       <c r="I31" s="101"/>
       <c r="J31" s="101" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="K31" s="101"/>
       <c r="L31" s="101" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="M31" s="101" t="s">
         <v>59</v>
@@ -12163,11 +12143,11 @@
       <c r="H32" s="9"/>
       <c r="I32" s="101"/>
       <c r="J32" s="101" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="K32" s="101"/>
       <c r="L32" s="101" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="M32" s="101" t="s">
         <v>59</v>
@@ -12399,7 +12379,7 @@
     <row r="40" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="100"/>
       <c r="B40" s="96" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C40" s="96"/>
       <c r="D40" s="96"/>
@@ -12413,26 +12393,26 @@
       <c r="H40" s="5"/>
       <c r="I40" s="106"/>
       <c r="J40" s="101" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="K40" s="101" t="s">
         <v>629</v>
       </c>
       <c r="L40" s="101" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="M40" s="101" t="s">
         <v>59</v>
       </c>
       <c r="N40" s="102" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="O40" s="106"/>
     </row>
     <row r="41" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="100"/>
       <c r="B41" s="96" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C41" s="96"/>
       <c r="D41" s="96"/>
@@ -12463,7 +12443,7 @@
     <row r="42" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="100"/>
       <c r="B42" s="96" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C42" s="96"/>
       <c r="D42" s="96"/>
@@ -12502,13 +12482,13 @@
       <c r="H43" s="2"/>
       <c r="I43" s="106"/>
       <c r="J43" s="101" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="K43" s="101" t="s">
         <v>1031</v>
       </c>
       <c r="L43" s="101" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="M43" s="101" t="s">
         <v>51</v>
@@ -12903,7 +12883,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="136"/>
       <c r="J54" s="140" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="K54" s="96" t="s">
         <v>248</v>
@@ -12921,10 +12901,10 @@
     </row>
     <row r="55" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="114" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B55" s="118" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C55" s="119"/>
       <c r="D55" s="119"/>
@@ -12934,7 +12914,7 @@
       <c r="H55" s="35"/>
       <c r="I55" s="138"/>
       <c r="J55" s="140" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K55" s="96" t="s">
         <v>252</v>
@@ -12952,10 +12932,10 @@
     </row>
     <row r="56" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="120" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B56" s="96" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C56" s="120"/>
       <c r="D56" s="117"/>
@@ -13025,7 +13005,7 @@
         <v>43</v>
       </c>
       <c r="J59" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K59" s="96" t="s">
         <v>268</v>
@@ -13209,7 +13189,7 @@
         <v>43</v>
       </c>
       <c r="B65" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C65" s="96" t="s">
         <v>268</v>
@@ -13382,13 +13362,13 @@
     <row r="70" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="100"/>
       <c r="B70" s="96" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C70" s="96" t="s">
         <v>172</v>
       </c>
       <c r="D70" s="96" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E70" s="96" t="s">
         <v>51</v>
@@ -13456,13 +13436,13 @@
     <row r="72" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="100"/>
       <c r="B72" s="96" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C72" s="96" t="s">
         <v>654</v>
       </c>
       <c r="D72" s="96" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E72" s="96" t="s">
         <v>51</v>
@@ -13530,7 +13510,7 @@
     <row r="74" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="100"/>
       <c r="B74" s="101" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C74" s="101" t="s">
         <v>176</v>
@@ -13627,7 +13607,7 @@
     <row r="77" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="100"/>
       <c r="B77" s="101" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C77" s="101"/>
       <c r="D77" s="101"/>
@@ -15023,7 +15003,7 @@
         <v>454</v>
       </c>
       <c r="O122" s="135" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15062,7 +15042,7 @@
         <v>498</v>
       </c>
       <c r="O123" s="135" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -15087,7 +15067,7 @@
       </c>
       <c r="H124" s="55"/>
       <c r="I124" s="130" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J124" s="130" t="s">
         <v>529</v>
@@ -15243,7 +15223,7 @@
       <c r="H129" s="55"/>
       <c r="I129" s="101"/>
       <c r="J129" s="101" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="K129" s="101"/>
       <c r="L129" s="101"/>
@@ -15276,7 +15256,7 @@
       <c r="H130" s="55"/>
       <c r="I130" s="101"/>
       <c r="J130" s="101" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="K130" s="101"/>
       <c r="L130" s="101"/>
@@ -15385,7 +15365,7 @@
         <v>59</v>
       </c>
       <c r="N133" s="134" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O133" s="135"/>
     </row>
@@ -15418,7 +15398,7 @@
         <v>59</v>
       </c>
       <c r="N134" s="134" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="O134" s="135"/>
     </row>
@@ -15884,7 +15864,7 @@
         <v>568</v>
       </c>
       <c r="B151" s="96" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C151" s="96" t="s">
         <v>50</v>
@@ -15903,7 +15883,7 @@
       </c>
       <c r="H151" s="55"/>
       <c r="I151" s="130" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="J151" s="130" t="s">
         <v>515</v>
@@ -16009,7 +15989,7 @@
       <c r="H154" s="55"/>
       <c r="I154" s="106"/>
       <c r="J154" s="148" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="K154" s="96"/>
       <c r="L154" s="96"/>
@@ -16021,7 +16001,7 @@
     </row>
     <row r="155" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="96" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B155" s="97"/>
       <c r="C155" s="100"/>
@@ -16032,7 +16012,7 @@
       <c r="H155" s="55"/>
       <c r="I155" s="106"/>
       <c r="J155" s="140" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="K155" s="96"/>
       <c r="L155" s="96"/>
@@ -16077,7 +16057,7 @@
         <v>51</v>
       </c>
       <c r="N156" s="149" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O156" s="106"/>
     </row>
@@ -16194,7 +16174,7 @@
         <v>43</v>
       </c>
       <c r="B161" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C161" s="96" t="s">
         <v>268</v>
@@ -16352,7 +16332,7 @@
         <v>43</v>
       </c>
       <c r="J165" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K165" s="96" t="s">
         <v>268</v>
@@ -16372,10 +16352,10 @@
     </row>
     <row r="166" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="100" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B166" s="101" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C166" s="101"/>
       <c r="D166" s="101"/>
@@ -16540,7 +16520,7 @@
         <v>43</v>
       </c>
       <c r="B171" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C171" s="96" t="s">
         <v>268</v>
@@ -16974,7 +16954,7 @@
     </row>
     <row r="184" spans="1:15" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="96" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B184" s="97"/>
       <c r="C184" s="97"/>
@@ -17347,13 +17327,13 @@
         <v>502</v>
       </c>
       <c r="J194" s="96" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="K194" s="96" t="s">
         <v>581</v>
       </c>
       <c r="L194" s="96" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="M194" s="96" t="s">
         <v>59</v>
@@ -17769,7 +17749,7 @@
       <c r="G207" s="105"/>
       <c r="H207" s="12"/>
       <c r="I207" s="153" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J207" s="153"/>
       <c r="K207" s="153"/>
@@ -17793,7 +17773,7 @@
         <v>545</v>
       </c>
       <c r="J208" s="153" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K208" s="153" t="s">
         <v>546</v>
@@ -17821,7 +17801,7 @@
       <c r="G209" s="30"/>
       <c r="H209" s="52"/>
       <c r="I209" s="154" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J209" s="153" t="s">
         <v>756</v>
@@ -18051,7 +18031,7 @@
         <v>43</v>
       </c>
       <c r="B216" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C216" s="96" t="s">
         <v>268</v>
@@ -18170,7 +18150,7 @@
         <v>545</v>
       </c>
       <c r="J219" s="153" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K219" s="153" t="s">
         <v>546</v>
@@ -18906,19 +18886,19 @@
       <c r="H240" s="3"/>
       <c r="I240" s="106"/>
       <c r="J240" s="101" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="K240" s="101" t="s">
         <v>403</v>
       </c>
       <c r="L240" s="101" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="M240" s="101" t="s">
         <v>59</v>
       </c>
       <c r="N240" s="102" t="s">
-        <v>1308</v>
+        <v>632</v>
       </c>
       <c r="O240" s="101"/>
     </row>
@@ -19486,7 +19466,7 @@
         <v>545</v>
       </c>
       <c r="J258" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K258" s="96" t="s">
         <v>889</v>
@@ -19842,7 +19822,7 @@
         <v>43</v>
       </c>
       <c r="B269" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C269" s="96" t="s">
         <v>268</v>
@@ -20762,13 +20742,13 @@
         <v>959</v>
       </c>
       <c r="B295" s="96" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C295" s="96" t="s">
         <v>629</v>
       </c>
       <c r="D295" s="96" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E295" s="96" t="s">
         <v>59</v>
@@ -20799,13 +20779,13 @@
     <row r="296" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="100"/>
       <c r="B296" s="101" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C296" s="101" t="s">
         <v>633</v>
       </c>
       <c r="D296" s="101" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="E296" s="101" t="s">
         <v>51</v>
@@ -20861,13 +20841,13 @@
     <row r="298" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="100"/>
       <c r="B298" s="101" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C298" s="101" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D298" s="101" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E298" s="101" t="s">
         <v>59</v>
@@ -20888,13 +20868,13 @@
     <row r="299" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="100"/>
       <c r="B299" s="96" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C299" s="96" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D299" s="96" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="E299" s="96" t="s">
         <v>51</v>
@@ -21289,7 +21269,7 @@
       <c r="G311" s="100"/>
       <c r="H311" s="68"/>
       <c r="I311" s="96" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J311" s="97"/>
       <c r="K311" s="106"/>
@@ -21371,7 +21351,7 @@
         <v>43</v>
       </c>
       <c r="B314" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C314" s="96" t="s">
         <v>1021</v>
@@ -22899,7 +22879,7 @@
     <row r="359" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="H359" s="75"/>
       <c r="I359" s="96" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J359" s="97"/>
       <c r="K359" s="106"/>
@@ -22923,19 +22903,19 @@
         <v>43</v>
       </c>
       <c r="J360" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="K360" s="96" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L360" s="96" t="s">
         <v>1228</v>
       </c>
-      <c r="L360" s="96" t="s">
+      <c r="M360" s="96" t="s">
         <v>1229</v>
       </c>
-      <c r="M360" s="96" t="s">
+      <c r="N360" s="96" t="s">
         <v>1230</v>
-      </c>
-      <c r="N360" s="96" t="s">
-        <v>1231</v>
       </c>
       <c r="O360" s="125" t="s">
         <v>272</v>
@@ -22963,13 +22943,13 @@
       <c r="G361" s="97"/>
       <c r="H361" s="75"/>
       <c r="I361" s="183" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J361" s="96" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K361" s="96" t="s">
         <v>1232</v>
-      </c>
-      <c r="K361" s="96" t="s">
-        <v>1233</v>
       </c>
       <c r="L361" s="96" t="s">
         <v>244</v>
@@ -22994,13 +22974,13 @@
       <c r="G362" s="97"/>
       <c r="I362" s="108"/>
       <c r="J362" s="183" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K362" s="183" t="s">
         <v>679</v>
       </c>
       <c r="L362" s="96" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="M362" s="96" t="s">
         <v>1162</v>
@@ -23029,10 +23009,10 @@
       <c r="H363" s="34"/>
       <c r="I363" s="106"/>
       <c r="J363" s="96" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K363" s="96" t="s">
         <v>1234</v>
-      </c>
-      <c r="K363" s="96" t="s">
-        <v>1235</v>
       </c>
       <c r="L363" s="187">
         <v>461</v>
@@ -23041,7 +23021,7 @@
         <v>1161</v>
       </c>
       <c r="N363" s="96" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="O363" s="125"/>
     </row>
@@ -23066,10 +23046,10 @@
       <c r="H364" s="93"/>
       <c r="I364" s="106"/>
       <c r="J364" s="96" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K364" s="96" t="s">
         <v>1237</v>
-      </c>
-      <c r="K364" s="96" t="s">
-        <v>1238</v>
       </c>
       <c r="L364" s="187">
         <v>514</v>
@@ -23078,7 +23058,7 @@
         <v>1162</v>
       </c>
       <c r="N364" s="96" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="O364" s="125"/>
     </row>
@@ -23103,13 +23083,13 @@
       <c r="H365" s="93"/>
       <c r="I365" s="106"/>
       <c r="J365" s="96" t="s">
+        <v>1239</v>
+      </c>
+      <c r="K365" s="96" t="s">
         <v>1240</v>
       </c>
-      <c r="K365" s="96" t="s">
-        <v>1241</v>
-      </c>
       <c r="L365" s="96" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="M365" s="96" t="s">
         <v>1161</v>
@@ -23140,13 +23120,13 @@
       <c r="H366" s="93"/>
       <c r="I366" s="106"/>
       <c r="J366" s="96" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K366" s="96" t="s">
         <v>1242</v>
       </c>
-      <c r="K366" s="96" t="s">
-        <v>1243</v>
-      </c>
       <c r="L366" s="96" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M366" s="96" t="s">
         <v>1162</v>
@@ -23167,13 +23147,13 @@
       <c r="H367" s="93"/>
       <c r="I367" s="106"/>
       <c r="J367" s="96" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="K367" s="96" t="s">
         <v>1189</v>
       </c>
       <c r="L367" s="96" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="M367" s="96" t="s">
         <v>1162</v>
@@ -23207,7 +23187,7 @@
         <v>43</v>
       </c>
       <c r="B369" s="96" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C369" s="96" t="s">
         <v>1184</v>
@@ -23226,16 +23206,16 @@
       </c>
       <c r="H369" s="93"/>
       <c r="I369" s="96" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J369" s="96" t="s">
         <v>1245</v>
       </c>
-      <c r="J369" s="96" t="s">
+      <c r="K369" s="96" t="s">
         <v>1246</v>
       </c>
-      <c r="K369" s="96" t="s">
-        <v>1247</v>
-      </c>
       <c r="L369" s="96" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="M369" s="96" t="s">
         <v>1161</v>
@@ -23264,13 +23244,13 @@
       <c r="H370" s="93"/>
       <c r="I370" s="106"/>
       <c r="J370" s="96" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K370" s="96" t="s">
         <v>1248</v>
       </c>
-      <c r="K370" s="96" t="s">
-        <v>1249</v>
-      </c>
       <c r="L370" s="96" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="M370" s="96" t="s">
         <v>1162</v>
@@ -23297,13 +23277,13 @@
       <c r="H371" s="93"/>
       <c r="I371" s="106"/>
       <c r="J371" s="96" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K371" s="96" t="s">
         <v>1250</v>
       </c>
-      <c r="K371" s="96" t="s">
-        <v>1251</v>
-      </c>
       <c r="L371" s="96" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="M371" s="96" t="s">
         <v>1161</v>
@@ -23332,10 +23312,10 @@
       <c r="H372" s="93"/>
       <c r="I372" s="106"/>
       <c r="J372" s="96" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K372" s="96" t="s">
         <v>1252</v>
-      </c>
-      <c r="K372" s="96" t="s">
-        <v>1253</v>
       </c>
       <c r="L372" s="187">
         <v>460</v>
@@ -23369,13 +23349,13 @@
       <c r="H373" s="93"/>
       <c r="I373" s="106"/>
       <c r="J373" s="96" t="s">
+        <v>1253</v>
+      </c>
+      <c r="K373" s="96" t="s">
         <v>1254</v>
       </c>
-      <c r="K373" s="96" t="s">
-        <v>1255</v>
-      </c>
       <c r="L373" s="96" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="M373" s="96" t="s">
         <v>1161</v>
@@ -23404,13 +23384,13 @@
       <c r="H374" s="93"/>
       <c r="I374" s="106"/>
       <c r="J374" s="96" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K374" s="96" t="s">
         <v>1256</v>
       </c>
-      <c r="K374" s="96" t="s">
-        <v>1257</v>
-      </c>
       <c r="L374" s="96" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="M374" s="96" t="s">
         <v>1162</v>
@@ -23442,7 +23422,7 @@
         <v>508</v>
       </c>
       <c r="K375" s="96" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L375" s="187">
         <v>508</v>
@@ -23535,7 +23515,7 @@
         <v>511</v>
       </c>
       <c r="K378" s="96" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="L378" s="187">
         <v>511</v>
@@ -23601,7 +23581,7 @@
         <v>557</v>
       </c>
       <c r="K380" s="96" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="L380" s="187">
         <v>557</v>
@@ -23610,7 +23590,7 @@
         <v>1162</v>
       </c>
       <c r="N380" s="96" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O380" s="97"/>
     </row>
@@ -23636,7 +23616,7 @@
         <v>558</v>
       </c>
       <c r="K381" s="96" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L381" s="187">
         <v>558</v>
@@ -23645,7 +23625,7 @@
         <v>1162</v>
       </c>
       <c r="N381" s="96" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O381" s="97"/>
     </row>
@@ -23847,9 +23827,7 @@
       <c r="E390" s="96" t="s">
         <v>1161</v>
       </c>
-      <c r="F390" s="96" t="s">
-        <v>1221</v>
-      </c>
+      <c r="F390" s="96"/>
       <c r="G390" s="97"/>
       <c r="H390" s="5"/>
       <c r="I390" s="4"/>
@@ -23866,7 +23844,7 @@
         <v>628</v>
       </c>
       <c r="C391" s="96" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D391" s="187">
         <v>628</v>
@@ -23875,7 +23853,7 @@
         <v>1161</v>
       </c>
       <c r="F391" s="96" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G391" s="97"/>
       <c r="H391" s="15"/>
@@ -23893,7 +23871,7 @@
         <v>630</v>
       </c>
       <c r="C392" s="96" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D392" s="187">
         <v>630</v>
@@ -23902,7 +23880,7 @@
         <v>1161</v>
       </c>
       <c r="F392" s="96" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G392" s="97"/>
       <c r="H392" s="36"/>
@@ -23933,7 +23911,7 @@
     </row>
     <row r="394" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="188" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="B394" s="162">
         <v>675</v>
@@ -23948,7 +23926,7 @@
         <v>686</v>
       </c>
       <c r="F394" s="96" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G394" s="96"/>
       <c r="H394" s="36"/>
@@ -23975,7 +23953,7 @@
         <v>564</v>
       </c>
       <c r="F395" s="96" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G395" s="96"/>
       <c r="H395" s="50"/>
@@ -24002,7 +23980,7 @@
         <v>539</v>
       </c>
       <c r="F396" s="96" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G396" s="96"/>
       <c r="H396" s="36"/>
@@ -24029,7 +24007,7 @@
         <v>564</v>
       </c>
       <c r="F397" s="96" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G397" s="96"/>
       <c r="H397" s="36"/>
@@ -24056,7 +24034,7 @@
         <v>539</v>
       </c>
       <c r="F398" s="96" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G398" s="96"/>
       <c r="H398" s="36"/>
